--- a/excels/datas/Animals.xlsx
+++ b/excels/datas/Animals.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
   <si>
     <t>##var</t>
   </si>
@@ -61,6 +61,12 @@
     <t>rarity</t>
   </si>
   <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>ERarity</t>
   </si>
   <si>
+    <t>(list#sep=;),string</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -101,6 +110,288 @@
   </si>
   <si>
     <t>稀有度</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>蚊子</t>
+  </si>
+  <si>
+    <t>开战随机点伤</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Sniper;EarlyGame</t>
+  </si>
+  <si>
+    <t>验证 StartOfBattle+普通伤害</t>
+  </si>
+  <si>
+    <t>管家</t>
+  </si>
+  <si>
+    <t>战前给后排装备蜜瓜</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>Support;Utility</t>
+  </si>
+  <si>
+    <t>验证 GiveEquipment（需有 Support 标签）</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>攻前自增</t>
+  </si>
+  <si>
+    <t>Attacker</t>
+  </si>
+  <si>
+    <t>验证 OnBeforeAttack+临时增益</t>
+  </si>
+  <si>
+    <t>爆破手</t>
+  </si>
+  <si>
+    <t>攻时溅射</t>
+  </si>
+  <si>
+    <t>Attacker;AOE</t>
+  </si>
+  <si>
+    <t>验证 AfterArmor 溅射范围</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>攻后换位</t>
+  </si>
+  <si>
+    <t>Attacker;Utility</t>
+  </si>
+  <si>
+    <t>验证 OnAfterAttack+站位交换</t>
+  </si>
+  <si>
+    <t>豪猪</t>
+  </si>
+  <si>
+    <t>受伤给敌虚弱</t>
+  </si>
+  <si>
+    <t>Debuffer;Tank</t>
+  </si>
+  <si>
+    <t>验证 OnHurt+状态施加</t>
+  </si>
+  <si>
+    <t>蚂蚁</t>
+  </si>
+  <si>
+    <t>倒下召蜂</t>
+  </si>
+  <si>
+    <t>Support;Faint-Trigger</t>
+  </si>
+  <si>
+    <t>验证 OnFaint+Summon( Bee )</t>
+  </si>
+  <si>
+    <t>河马</t>
+  </si>
+  <si>
+    <t>击杀永久成长</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Attacker;Scaler</t>
+  </si>
+  <si>
+    <t>验证 OnKnockOut+永久成长</t>
+  </si>
+  <si>
+    <t>火鸡</t>
+  </si>
+  <si>
+    <t>召唤光环</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Summoner;Support</t>
+  </si>
+  <si>
+    <t>验证 OnAllySummoned 光环</t>
+  </si>
+  <si>
+    <t>鹰</t>
+  </si>
+  <si>
+    <t>敌人召唤即狙击</t>
+  </si>
+  <si>
+    <t>Sniper;Anti-Summon</t>
+  </si>
+  <si>
+    <t>验证 OnEnemySummoned+Snipe</t>
+  </si>
+  <si>
+    <t>将军</t>
+  </si>
+  <si>
+    <t>友军倒下自强</t>
+  </si>
+  <si>
+    <t>Attacker;Leader</t>
+  </si>
+  <si>
+    <t>与 1033 的 require_tag:Attacker 配合</t>
+  </si>
+  <si>
+    <t>变色龙</t>
+  </si>
+  <si>
+    <t>复制前排 50% 攻</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>验证 CopyStats</t>
+  </si>
+  <si>
+    <t>控场者</t>
+  </si>
+  <si>
+    <t>后排友军攻时拉前排</t>
+  </si>
+  <si>
+    <t>验证 Pull</t>
+  </si>
+  <si>
+    <t>沉默者</t>
+  </si>
+  <si>
+    <t>开战沉默敌后排</t>
+  </si>
+  <si>
+    <t>Debuffer</t>
+  </si>
+  <si>
+    <t>验证 Silence（面向护盾类）</t>
+  </si>
+  <si>
+    <t>净化者</t>
+  </si>
+  <si>
+    <t>升级驱散负面</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>验证 Dispel</t>
+  </si>
+  <si>
+    <t>鹦鹉</t>
+  </si>
+  <si>
+    <t>攻前复制前排技能</t>
+  </si>
+  <si>
+    <t>验证 CopyAbility</t>
+  </si>
+  <si>
+    <t>指挥官</t>
+  </si>
+  <si>
+    <t>召唤触发×2</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Leader;Summoner</t>
+  </si>
+  <si>
+    <t>验证 MultiplyTrigger</t>
+  </si>
+  <si>
+    <t>推土机</t>
+  </si>
+  <si>
+    <t>攻时把敌前排推后</t>
+  </si>
+  <si>
+    <t>Utility;Control</t>
+  </si>
+  <si>
+    <t>验证 Push</t>
+  </si>
+  <si>
+    <t>刺穿者</t>
+  </si>
+  <si>
+    <t>开战对最强敌真伤6</t>
+  </si>
+  <si>
+    <t>Attacker;Sniper</t>
+  </si>
+  <si>
+    <t>验证 TrueDamage+HighestStats</t>
+  </si>
+  <si>
+    <t>医者</t>
+  </si>
+  <si>
+    <t>开战治疗最低血友军</t>
+  </si>
+  <si>
+    <t>Support;Healer</t>
+  </si>
+  <si>
+    <t>验证 Heal+LowestHP 选择</t>
+  </si>
+  <si>
+    <t>蜜蜂（Token）</t>
+  </si>
+  <si>
+    <t>召唤产物：Bee</t>
+  </si>
+  <si>
+    <t>Token;Summon</t>
+  </si>
+  <si>
+    <t>Bee</t>
+  </si>
+  <si>
+    <t>召唤物条目（供 token="Bee" 引用）</t>
+  </si>
+  <si>
+    <t>复活体（Token）</t>
+  </si>
+  <si>
+    <t>召唤产物：SelfClone</t>
+  </si>
+  <si>
+    <t>SelfClone</t>
+  </si>
+  <si>
+    <t>复活体条目（供 token="SelfClone" 引用）</t>
   </si>
 </sst>
 </file>
@@ -1068,15 +1359,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="8.30769230769231" customWidth="1"/>
+    <col min="2" max="2" width="10.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="8.61538461538461" customWidth="1"/>
+    <col min="4" max="4" width="14.3076923076923" customWidth="1"/>
+    <col min="5" max="5" width="22.4615384615385" customWidth="1"/>
+    <col min="6" max="6" width="9.46153846153846" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10.1538461538462" customWidth="1"/>
+    <col min="9" max="9" width="11.6153846153846" customWidth="1"/>
+    <col min="10" max="11" width="22.4615384615385" customWidth="1"/>
+    <col min="12" max="12" width="12.2307692307692" customWidth="1"/>
+    <col min="13" max="13" width="36.7692307692308" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,69 +1412,883 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1011</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <v>202</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1012</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6">
+        <v>203</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1013</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7">
+        <v>204</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>1014</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8">
+        <v>205</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1015</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9">
+        <v>206</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>1021</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10">
+        <v>207</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1022</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11">
+        <v>208</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1023</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12">
+        <v>209</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>1031</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13">
+        <v>210</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1032</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14">
+        <v>211</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>1033</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15">
+        <v>212</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>1034</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16">
+        <v>213</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>1035</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17">
+        <v>214</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1041</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18">
+        <v>215</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>1042</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19">
+        <v>216</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>1043</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20">
+        <v>217</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>1044</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21">
+        <v>218</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>1045</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22">
+        <v>219</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>1046</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23">
+        <v>220</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>1050</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24">
+        <v>9991</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25">
+        <v>9999</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" t="s">
+        <v>119</v>
+      </c>
+      <c r="M25" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
